--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.krivov\Desktop\Diplom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.krivov\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -69,45 +69,45 @@
     <t>Отображается сообщение об ошибке входа.</t>
   </si>
   <si>
-    <t>Создание задачи</t>
-  </si>
-  <si>
     <t>Пользователь авторизован.</t>
-  </si>
-  <si>
-    <t>1. Открыть страницу создания задачи.
-2. Ввести название задачи и описание.
-3. Нажать кнопку "Создать задачу".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Задача успешно создана и отображается в списке задач.
-</t>
-  </si>
-  <si>
-    <t>Поиск задачи</t>
-  </si>
-  <si>
-    <t>В списке задач есть несколько задач.</t>
   </si>
   <si>
     <t>1. Ввести ключевое слово в поле поиска.
 2. Нажать кнопку "Поиск".</t>
   </si>
   <si>
-    <t>Отображаются задачи, соответствующие ключевому слову.</t>
-  </si>
-  <si>
-    <t>Удаление задачи</t>
-  </si>
-  <si>
-    <t>В списке задач есть задача.</t>
-  </si>
-  <si>
-    <t>1. Выбрать задачу для удаления.
+    <t>Создание новости</t>
+  </si>
+  <si>
+    <t>Поиск новости</t>
+  </si>
+  <si>
+    <t>Удаление новости</t>
+  </si>
+  <si>
+    <t>В списке новостей есть несколько новостей.</t>
+  </si>
+  <si>
+    <t>В списке новостей есть новость.</t>
+  </si>
+  <si>
+    <t>1. Открыть страницу создания новости.
+2. Ввести название новости и описание.
+3. Нажать кнопку "Создать новость".</t>
+  </si>
+  <si>
+    <t>1. Выбрать новость для удаления.
 2. Нажать кнопку "Удалить".</t>
   </si>
   <si>
-    <t>Задача успешно удалена из списка.</t>
+    <t xml:space="preserve">Новость успешно создана и отображается в списке новостей.
+</t>
+  </si>
+  <si>
+    <t>Отображаются новости, соответствующие ключевому слову.</t>
+  </si>
+  <si>
+    <t>Новость успешно удалена из списка.</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,21 +598,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -620,16 +620,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -637,13 +637,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>24</v>
